--- a/imporium-cards/res/imporium_lab_cards.xlsx
+++ b/imporium-cards/res/imporium_lab_cards.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5683A4F-57B2-44DC-925A-174982C1542D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1612CE58-D7B6-4274-BBDA-A1F642405FC4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20205" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20208" windowHeight="12072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="97">
   <si>
     <t>Starting_Qty</t>
   </si>
@@ -101,9 +101,6 @@
   </si>
   <si>
     <t>One copy of the imp goes to each discharge</t>
-  </si>
-  <si>
-    <t>Discard the imp and trash this card to discard an opponent's lab component</t>
   </si>
   <si>
     <t>+2 Credits OR
@@ -118,10 +115,6 @@
   <si>
     <t>+1 Buy
 +1 Imp</t>
-  </si>
-  <si>
-    <t>+1 Dispenser
-+1 Buy</t>
   </si>
   <si>
     <t>+2 Credits</t>
@@ -174,9 +167,6 @@
     <t>play</t>
   </si>
   <si>
-    <t>discard</t>
-  </si>
-  <si>
     <t>Qty</t>
   </si>
   <si>
@@ -247,10 +237,6 @@
   </si>
   <si>
     <t>.\res\graphics\Adv_Combiner.png</t>
-  </si>
-  <si>
-    <t>+2 Imp
-+1 Dispenser</t>
   </si>
   <si>
     <t>+1 Buy</t>
@@ -265,10 +251,6 @@
   </si>
   <si>
     <t>Player selects the colour of the imp leaving the converter</t>
-  </si>
-  <si>
-    <t>+3 Imps
-+1 Dispenser</t>
   </si>
   <si>
     <t>+1 Credit
@@ -311,33 +293,44 @@
 +1 Stamina</t>
   </si>
   <si>
-    <t>+1 Dispenser AND
-+1 Recipe OR
+    <t>Discard the imp and trash this card to immediately gain another with cost less than or equal to 5</t>
+  </si>
+  <si>
+    <t>The imp may move through the next machine component without activating it if the player wishes</t>
+  </si>
+  <si>
+    <t>Splice</t>
+  </si>
+  <si>
+    <t>Discard the imp and trash this card immediately</t>
+  </si>
+  <si>
+    <t>-1 Sell</t>
+  </si>
+  <si>
+    <t>-1 Credit</t>
+  </si>
+  <si>
+    <t>Pile Of Junk</t>
+  </si>
+  <si>
+    <t>Crossover Tubes</t>
+  </si>
+  <si>
+    <t>recycle</t>
+  </si>
+  <si>
+    <t>Discard the imp and trash this card to discard an opponent's lab component and give them a Pile Of Junk</t>
+  </si>
+  <si>
+    <t>+2 Imp</t>
+  </si>
+  <si>
+    <t>+1 Recipe OR
 +1 Sell</t>
   </si>
   <si>
-    <t>Discard the imp and trash this card to immediately gain another with cost less than or equal to 5</t>
-  </si>
-  <si>
-    <t>The imp may move through the next machine component without activating it if the player wishes</t>
-  </si>
-  <si>
-    <t>Splice</t>
-  </si>
-  <si>
-    <t>Discard the imp and trash this card immediately</t>
-  </si>
-  <si>
-    <t>-1 Sell</t>
-  </si>
-  <si>
-    <t>-1 Credit</t>
-  </si>
-  <si>
-    <t>Pile Of Junk</t>
-  </si>
-  <si>
-    <t>Crossover Tubes</t>
+    <t>+3 Imps</t>
   </si>
 </sst>
 </file>
@@ -704,47 +697,47 @@
   </sheetPr>
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.42578125" customWidth="1"/>
-    <col min="3" max="3" width="45.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="62.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" customWidth="1"/>
-    <col min="6" max="6" width="28.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="73.42578125" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" customWidth="1"/>
-    <col min="9" max="12" width="4.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.44140625" customWidth="1"/>
+    <col min="3" max="3" width="45.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="62.5546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" customWidth="1"/>
+    <col min="6" max="6" width="28.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="73.44140625" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" customWidth="1"/>
+    <col min="9" max="12" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="100.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>0</v>
@@ -756,10 +749,10 @@
         <v>18</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -770,16 +763,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H2" s="8">
         <v>8</v>
@@ -797,7 +790,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -806,16 +799,16 @@
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H3" s="7">
         <v>8</v>
@@ -831,7 +824,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -840,16 +833,16 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -865,7 +858,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -876,14 +869,14 @@
         <v>26</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="H5" s="8">
         <v>8</v>
@@ -901,7 +894,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -912,14 +905,14 @@
         <v>26</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="H6" s="8">
         <v>8</v>
@@ -937,7 +930,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -946,16 +939,16 @@
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H7" s="7">
         <v>8</v>
@@ -973,7 +966,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -982,16 +975,16 @@
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H8" s="7">
         <v>8</v>
@@ -1009,7 +1002,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -1020,16 +1013,16 @@
         <v>23</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H9" s="4">
         <v>8</v>
@@ -1047,7 +1040,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -1058,16 +1051,16 @@
         <v>25</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -1085,7 +1078,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -1093,17 +1086,17 @@
         <v>4</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="9" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H11" s="8">
         <v>8</v>
@@ -1121,7 +1114,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
@@ -1129,17 +1122,17 @@
         <v>4</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H12" s="8">
         <v>8</v>
@@ -1157,7 +1150,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
@@ -1168,16 +1161,16 @@
         <v>24</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H13" s="4">
         <v>8</v>
@@ -1195,7 +1188,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
@@ -1206,16 +1199,16 @@
         <v>11</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H14" s="8">
         <v>8</v>
@@ -1233,7 +1226,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
@@ -1244,16 +1237,16 @@
         <v>26</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H15" s="8">
         <v>8</v>
@@ -1271,7 +1264,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
@@ -1282,16 +1275,16 @@
         <v>25</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -1309,7 +1302,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>13</v>
       </c>
@@ -1317,19 +1310,19 @@
         <v>4</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H17" s="8">
         <v>8</v>
@@ -1347,7 +1340,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>13</v>
       </c>
@@ -1355,19 +1348,19 @@
         <v>4</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H18" s="8">
         <v>8</v>
@@ -1385,25 +1378,25 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B19" s="4">
         <v>3</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H19" s="7">
         <v>8</v>
@@ -1421,25 +1414,25 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B20" s="4">
         <v>3</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H20" s="7">
         <v>8</v>
@@ -1457,7 +1450,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>15</v>
       </c>
@@ -1465,19 +1458,19 @@
         <v>3</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H21" s="5">
         <v>8</v>
@@ -1495,7 +1488,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
@@ -1503,19 +1496,19 @@
         <v>2</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H22" s="7">
         <v>8</v>
@@ -1533,7 +1526,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
@@ -1542,16 +1535,16 @@
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H23" s="5">
         <v>8</v>
@@ -1569,25 +1562,25 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B24" s="4">
         <v>-1</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H24" s="5">
         <v>8</v>
@@ -1605,9 +1598,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B25" s="4">
         <v>2</v>
@@ -1618,10 +1611,10 @@
         <v>3</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H25" s="5">
         <v>8</v>
@@ -1639,16 +1632,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M27" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="N27">
         <f>SUM(L2:L26)</f>
         <v>192</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N28">
         <f>N27/12</f>
         <v>16</v>

--- a/imporium-cards/res/imporium_lab_cards.xlsx
+++ b/imporium-cards/res/imporium_lab_cards.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CA867C-8493-470D-8DB7-4CCB9E4452A6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40CC9C62-2FED-4643-A435-F86584C46D15}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20205" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -743,7 +743,7 @@
   <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/imporium-cards/res/imporium_lab_cards.xlsx
+++ b/imporium-cards/res/imporium_lab_cards.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40CC9C62-2FED-4643-A435-F86584C46D15}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47806773-A244-4F11-A804-555DBA8907F9}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20205" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20208" windowHeight="12072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="115">
   <si>
     <t>Starting_Qty</t>
   </si>
@@ -382,6 +382,9 @@
   </si>
   <si>
     <t>.\res\graphics\Adv_Selector_Inactive.png</t>
+  </si>
+  <si>
+    <t>.\res\graphics\Adv_Combiner_Inactive.png</t>
   </si>
 </sst>
 </file>
@@ -405,7 +408,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -428,11 +431,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -457,6 +480,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -742,24 +767,27 @@
   </sheetPr>
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.42578125" customWidth="1"/>
-    <col min="3" max="3" width="45.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="62.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" customWidth="1"/>
-    <col min="6" max="6" width="28.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="73.42578125" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" customWidth="1"/>
-    <col min="9" max="12" width="4.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.44140625" customWidth="1"/>
+    <col min="3" max="3" width="45.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="62.5546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" customWidth="1"/>
+    <col min="6" max="6" width="28.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="73.44140625" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" customWidth="1"/>
+    <col min="9" max="12" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>40</v>
       </c>
@@ -797,7 +825,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -832,10 +860,13 @@
         <v>2</v>
       </c>
       <c r="L2" s="4">
+        <v>0</v>
+      </c>
+      <c r="M2" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -866,10 +897,13 @@
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="4">
+        <v>0</v>
+      </c>
+      <c r="M3" s="12">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -900,10 +934,13 @@
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="3">
+        <v>0</v>
+      </c>
+      <c r="M4" s="12">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -924,7 +961,7 @@
         <v>92</v>
       </c>
       <c r="H5" s="8">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I5" s="4">
         <v>1</v>
@@ -936,10 +973,13 @@
         <v>1</v>
       </c>
       <c r="L5" s="3">
+        <v>0</v>
+      </c>
+      <c r="M5" s="13">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -960,7 +1000,7 @@
         <v>92</v>
       </c>
       <c r="H6" s="8">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I6" s="4">
         <v>1</v>
@@ -972,10 +1012,13 @@
         <v>1</v>
       </c>
       <c r="L6" s="3">
+        <v>0</v>
+      </c>
+      <c r="M6" s="13">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>94</v>
       </c>
@@ -1008,10 +1051,13 @@
         <v>1</v>
       </c>
       <c r="L7" s="3">
+        <v>0</v>
+      </c>
+      <c r="M7" s="13">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>94</v>
       </c>
@@ -1044,10 +1090,13 @@
         <v>1</v>
       </c>
       <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="13">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
@@ -1068,7 +1117,7 @@
         <v>82</v>
       </c>
       <c r="H9" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I9" s="4">
         <v>0</v>
@@ -1080,10 +1129,13 @@
         <v>1</v>
       </c>
       <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="13">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>101</v>
       </c>
@@ -1118,10 +1170,13 @@
         <v>1</v>
       </c>
       <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="13">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
@@ -1142,7 +1197,7 @@
         <v>82</v>
       </c>
       <c r="H11" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I11" s="4">
         <v>0</v>
@@ -1154,10 +1209,13 @@
         <v>1</v>
       </c>
       <c r="L11" s="3">
+        <v>0</v>
+      </c>
+      <c r="M11" s="13">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>101</v>
       </c>
@@ -1192,10 +1250,13 @@
         <v>1</v>
       </c>
       <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="13">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1218,7 +1279,7 @@
         <v>32</v>
       </c>
       <c r="H13" s="4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I13" s="4">
         <v>0</v>
@@ -1230,10 +1291,13 @@
         <v>2</v>
       </c>
       <c r="L13" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="M13" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>104</v>
       </c>
@@ -1268,10 +1332,13 @@
         <v>2</v>
       </c>
       <c r="L14" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="M14" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
@@ -1294,7 +1361,7 @@
         <v>33</v>
       </c>
       <c r="H15" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I15" s="4">
         <v>0</v>
@@ -1306,10 +1373,13 @@
         <v>2</v>
       </c>
       <c r="L15" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="M15" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>105</v>
       </c>
@@ -1344,10 +1414,13 @@
         <v>2</v>
       </c>
       <c r="L16" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="M16" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>9</v>
       </c>
@@ -1368,7 +1441,7 @@
         <v>80</v>
       </c>
       <c r="H17" s="8">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I17" s="4">
         <v>0</v>
@@ -1380,10 +1453,13 @@
         <v>1</v>
       </c>
       <c r="L17" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="M17" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>9</v>
       </c>
@@ -1404,7 +1480,7 @@
         <v>80</v>
       </c>
       <c r="H18" s="8">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I18" s="4">
         <v>0</v>
@@ -1416,10 +1492,13 @@
         <v>1</v>
       </c>
       <c r="L18" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="M18" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>106</v>
       </c>
@@ -1452,10 +1531,13 @@
         <v>1</v>
       </c>
       <c r="L19" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="M19" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>106</v>
       </c>
@@ -1488,10 +1570,13 @@
         <v>1</v>
       </c>
       <c r="L20" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="M20" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>10</v>
       </c>
@@ -1514,7 +1599,7 @@
         <v>34</v>
       </c>
       <c r="H21" s="4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I21" s="4">
         <v>0</v>
@@ -1526,10 +1611,13 @@
         <v>2</v>
       </c>
       <c r="L21" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="M21" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>109</v>
       </c>
@@ -1564,10 +1652,13 @@
         <v>2</v>
       </c>
       <c r="L22" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="M22" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>19</v>
       </c>
@@ -1602,10 +1693,13 @@
         <v>1</v>
       </c>
       <c r="L23" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="M23" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>20</v>
       </c>
@@ -1628,7 +1722,7 @@
         <v>36</v>
       </c>
       <c r="H24" s="8">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I24" s="4">
         <v>0</v>
@@ -1640,10 +1734,13 @@
         <v>1</v>
       </c>
       <c r="L24" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="M24" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>20</v>
       </c>
@@ -1666,7 +1763,7 @@
         <v>36</v>
       </c>
       <c r="H25" s="8">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I25" s="4">
         <v>0</v>
@@ -1680,8 +1777,11 @@
       <c r="L25" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="M25" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>21</v>
       </c>
@@ -1716,10 +1816,13 @@
         <v>1</v>
       </c>
       <c r="L26" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="M26" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>21</v>
       </c>
@@ -1754,10 +1857,13 @@
         <v>1</v>
       </c>
       <c r="L27" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="M27" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>13</v>
       </c>
@@ -1792,10 +1898,13 @@
         <v>1</v>
       </c>
       <c r="L28" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="M28" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>13</v>
       </c>
@@ -1830,10 +1939,13 @@
         <v>1</v>
       </c>
       <c r="L29" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="M29" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>85</v>
       </c>
@@ -1866,10 +1978,13 @@
         <v>1</v>
       </c>
       <c r="L30" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="M30" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>85</v>
       </c>
@@ -1902,10 +2017,13 @@
         <v>1</v>
       </c>
       <c r="L31" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="M31" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>15</v>
       </c>
@@ -1928,7 +2046,7 @@
         <v>76</v>
       </c>
       <c r="H32" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I32" s="4">
         <v>0</v>
@@ -1940,10 +2058,13 @@
         <v>2</v>
       </c>
       <c r="L32" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="M32" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>16</v>
       </c>
@@ -1966,7 +2087,7 @@
         <v>77</v>
       </c>
       <c r="H33" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I33" s="4">
         <v>0</v>
@@ -1978,10 +2099,13 @@
         <v>2</v>
       </c>
       <c r="L33" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="M33" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>22</v>
       </c>
@@ -2014,10 +2138,13 @@
         <v>1</v>
       </c>
       <c r="L34" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="M34" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>22</v>
       </c>
@@ -2028,7 +2155,7 @@
         <v>111</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>68</v>
+        <v>114</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>5</v>
@@ -2052,10 +2179,13 @@
         <v>1</v>
       </c>
       <c r="L35" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="M35" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>87</v>
       </c>
@@ -2084,10 +2214,13 @@
         <v>1</v>
       </c>
       <c r="L36" s="4">
+        <v>0</v>
+      </c>
+      <c r="M36" s="13">
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>88</v>
       </c>
@@ -2106,7 +2239,7 @@
         <v>30</v>
       </c>
       <c r="H37" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I37" s="4">
         <v>0</v>
@@ -2118,22 +2251,22 @@
         <v>1</v>
       </c>
       <c r="L37" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M39" t="s">
         <v>81</v>
       </c>
       <c r="N39">
         <f>SUM(L2:L38)</f>
-        <v>264</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N40">
         <f>N39/12</f>
-        <v>22</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
   </sheetData>
